--- a/2-1试验数据/0高强钢单调拉伸2016.11/单调拉伸试件材性数据.xlsx
+++ b/2-1试验数据/0高强钢单调拉伸2016.11/单调拉伸试件材性数据.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\1毕业课题\2-1试验数据\0高强钢单调拉伸2016.11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\1毕业课题\#Graduate-thesis\2-1试验数据\0高强钢单调拉伸2016.11\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72E829E-3EA4-4654-B7A4-97AA4FE2F9B7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -150,8 +151,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,7 +260,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -275,13 +276,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -292,24 +296,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -625,51 +611,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="12" max="12" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
       <c r="J2" s="1" t="s">
         <v>27</v>
       </c>
@@ -677,8 +663,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="8"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -709,14 +695,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <v>20</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="9">
         <v>10</v>
       </c>
       <c r="D4" s="1">
@@ -744,12 +730,12 @@
         <v>207.9744</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="1">
         <v>20.18</v>
       </c>
@@ -775,12 +761,12 @@
         <v>206.845</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="1">
         <v>20.2</v>
       </c>
@@ -806,7 +792,7 @@
         <v>206.84799999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -849,14 +835,14 @@
         <v>207.22263333333336</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="9">
         <v>15</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="9">
         <v>20</v>
       </c>
       <c r="D8" s="1">
@@ -884,12 +870,12 @@
         <v>294.19600000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="1">
         <v>15</v>
       </c>
@@ -915,12 +901,12 @@
         <v>294.60000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="1">
         <v>15.07</v>
       </c>
@@ -946,7 +932,7 @@
         <v>296.57760000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -989,14 +975,14 @@
         <v>295.12373333333329</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="9">
         <v>20</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="9">
         <v>10</v>
       </c>
       <c r="D12" s="1">
@@ -1024,12 +1010,12 @@
         <v>193.66760000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="1">
         <v>20.18</v>
       </c>
@@ -1055,12 +1041,12 @@
         <v>194.93879999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="1">
         <v>20.09</v>
       </c>
@@ -1086,7 +1072,7 @@
         <v>192.4622</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -1129,14 +1115,14 @@
         <v>193.68853333333334</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="9">
         <v>15</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="9">
         <v>20</v>
       </c>
       <c r="D16" s="1">
@@ -1164,12 +1150,12 @@
         <v>295.20499999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="1">
         <v>15.21</v>
       </c>
@@ -1195,12 +1181,12 @@
         <v>297.35550000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="1">
         <v>15.07</v>
       </c>
@@ -1226,7 +1212,7 @@
         <v>293.11149999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -1269,122 +1255,122 @@
         <v>295.22211111111108</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="16" customFormat="1">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="9">
         <v>20</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="9">
         <v>10</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="1">
         <v>19.350000000000001</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="1">
         <v>10.09</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="1">
         <v>101.33</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="1">
         <v>15.42</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="1">
         <v>7.24</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="1">
         <v>115.35</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="8">
         <f t="shared" ref="J20:J22" si="16">(G20*H20)/(D20*E20)</f>
         <v>0.57180875992040625</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="8">
         <f t="shared" ref="K20:K27" si="17">I20/F20-1</f>
         <v>0.13835981446758105</v>
       </c>
-      <c r="L20" s="15">
+      <c r="L20" s="7">
         <f t="shared" si="0"/>
         <v>195.2415</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="16" customFormat="1">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="11">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="1">
         <v>19.190000000000001</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="1">
         <v>10.18</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="1">
         <v>101.15</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="1">
         <v>15</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="1">
         <v>7.05</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="1">
         <v>113.82</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="8">
         <f t="shared" si="16"/>
         <v>0.54132442506994982</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K21" s="8">
         <f t="shared" si="17"/>
         <v>0.12525951557093418</v>
       </c>
-      <c r="L21" s="15">
+      <c r="L21" s="7">
         <f t="shared" si="0"/>
         <v>195.35420000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="16" customFormat="1">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="11">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="1">
         <v>19.329999999999998</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="1">
         <v>10.16</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="1">
         <v>102.18</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="1">
         <v>15.07</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="1">
         <v>6.71</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="1">
         <v>113.56</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="8">
         <f t="shared" si="16"/>
         <v>0.51488496523294136</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="8">
         <f t="shared" si="17"/>
         <v>0.11137208847132496</v>
       </c>
-      <c r="L22" s="15">
+      <c r="L22" s="7">
         <f t="shared" si="0"/>
         <v>196.39279999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
@@ -1427,122 +1413,122 @@
         <v>195.66490000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="16" customFormat="1">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="9">
         <v>15</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="9">
         <v>20</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="1">
         <v>15.01</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="1">
         <v>20</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="1">
         <v>101</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="1">
         <v>9.9700000000000006</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="1">
         <v>13.31</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="1">
         <v>117.96</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="8">
         <f t="shared" ref="J24:J27" si="23">(G24*H24)/(D24*E24)</f>
         <v>0.4420409726848768</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="8">
         <f t="shared" si="17"/>
         <v>0.16792079207920785</v>
       </c>
-      <c r="L24" s="15">
+      <c r="L24" s="7">
         <f t="shared" si="0"/>
         <v>300.2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="16" customFormat="1">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="11">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="1">
         <v>15.18</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="1">
         <v>19.95</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="1">
         <v>102.32</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="1">
         <v>10.09</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="1">
         <v>13.2</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="1">
         <v>118.14</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="8">
         <f t="shared" si="23"/>
         <v>0.43979514002397291</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K25" s="8">
         <f t="shared" si="17"/>
         <v>0.15461297888975767</v>
       </c>
-      <c r="L25" s="15">
+      <c r="L25" s="7">
         <f t="shared" si="0"/>
         <v>302.84100000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="16" customFormat="1">
-      <c r="A26" s="11" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="11">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="1">
         <v>15.07</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="1">
         <v>19.98</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="1">
         <v>102.32</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="1">
         <v>9.77</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="1">
         <v>13.2</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="1">
         <v>118.65</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="8">
         <f t="shared" si="23"/>
         <v>0.42831152320203408</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="8">
         <f t="shared" si="17"/>
         <v>0.1595973416731824</v>
       </c>
-      <c r="L26" s="15">
+      <c r="L26" s="7">
         <f t="shared" si="0"/>
         <v>301.09860000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
@@ -1587,11 +1573,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A1:K1"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="A2:A3"/>
@@ -1604,6 +1585,11 @@
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1611,16 +1597,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>30</v>
       </c>
@@ -1631,8 +1617,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B2">
@@ -1642,37 +1628,37 @@
         <v>1153.8499999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
